--- a/old/SANTA3/FORMULAss.xlsx
+++ b/old/SANTA3/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Grilla Develop" sheetId="14" r:id="rId3"/>
     <sheet name="CALCULADORA" sheetId="9" r:id="rId4"/>
     <sheet name="ESTRUCTURA" sheetId="12" r:id="rId5"/>
+    <sheet name="backtesting" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ESTRUCTURA!$A$1:$G$41</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="108">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -330,6 +331,21 @@
   </si>
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t>procentaje distancias</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>peso en %</t>
+  </si>
+  <si>
+    <t>peso en unidades</t>
   </si>
 </sst>
 </file>
@@ -337,11 +353,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.00000"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="28">
@@ -417,36 +433,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,14 +473,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,7 +510,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -516,7 +518,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,9 +533,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,7 +546,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -552,20 +575,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -593,7 +615,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,25 +729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,13 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,91 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,19 +783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,17 +1038,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,6 +1058,45 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,41 +1119,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,15 +1138,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,140 +1159,151 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1279,7 +1312,7 @@
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,77 +1336,77 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1384,7 +1417,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1399,7 +1432,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4647,79 +4680,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="42" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="42" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="43" customWidth="1"/>
-    <col min="4" max="4" width="21.8888888888889" style="44" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="20.5740740740741" style="45" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="46" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" style="47" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="50">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>7390.91790332117</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="50">
         <f>D2-A2</f>
         <v>4441.91790332117</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="52"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="53">
         <f>A9*100/A2</f>
         <v>3.1197015937606</v>
       </c>
@@ -4740,497 +4773,497 @@
   <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="17" customWidth="1"/>
-    <col min="3" max="3" width="4.55555555555556" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="5" max="5" width="21.5555555555556" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="17" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="17" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="17" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="17" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="17" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="17"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="18"/>
+    <col min="1" max="1" width="22" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="20" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="5" max="5" width="21.5555555555556" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="20" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="20" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="20" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="20" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="20" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="20" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="20"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="20" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="21" t="s">
+    <row r="2" s="20" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" spans="1:10">
-      <c r="A3" s="25" t="s">
+    <row r="3" s="20" customFormat="1" spans="1:10">
+      <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="29">
         <v>2853.37</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="31">
         <f>G3/F3</f>
         <v>866.956323585264</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="32">
         <v>0.2633</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="33">
         <f>B8</f>
         <v>228.2696</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="42">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
         <v>-1.89928962687925</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" spans="1:10">
-      <c r="A4" s="25" t="s">
+    <row r="4" s="20" customFormat="1" spans="1:10">
+      <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="34">
         <f>-B3*$B$10/100</f>
         <v>-370.9381</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="31">
         <f>E3</f>
         <v>866.956323585264</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="36">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.2677761</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="33">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
         <v>232.1501832</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="42">
         <f>E18</f>
         <v>64442.0391248675</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" spans="1:10">
-      <c r="A5" s="25" t="s">
+    <row r="5" s="20" customFormat="1" spans="1:10">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="29">
         <v>1.7</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="35">
         <v>2</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="31">
         <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
         <v>1127.04322066084</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="36">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.2723282937</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="33">
         <f t="shared" si="0"/>
         <v>306.92575720872</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="42">
         <f>J4*J10</f>
         <v>19530.3599172229</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" spans="1:10">
-      <c r="A6" s="25" t="s">
+    <row r="6" s="20" customFormat="1" spans="1:10">
+      <c r="A6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="34">
         <v>30</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="35">
         <v>3</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="31">
         <f t="shared" si="1"/>
         <v>1465.1561868591</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="36">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
         <v>0.2769578746929</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="33">
         <f t="shared" si="0"/>
         <v>405.786543605649</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="42">
         <f>J3/100*J4*J10</f>
         <v>-370.938099999998</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" spans="1:10">
-      <c r="A7" s="25" t="s">
+    <row r="7" s="20" customFormat="1" spans="1:10">
+      <c r="A7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="34">
         <v>10</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="35">
         <v>4</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="31">
         <f t="shared" si="1"/>
         <v>1904.70304291683</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="36">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
         <v>0.281666158562679</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="33">
         <f t="shared" si="0"/>
         <v>536.490389301028</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="34">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
         <v>15.1039197761742</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" spans="1:7">
-      <c r="A8" s="25" t="s">
+    <row r="8" s="20" customFormat="1" spans="1:7">
+      <c r="A8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="34">
         <f>B3*$B$9/100</f>
         <v>228.2696</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="35">
         <v>5</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="31">
         <f t="shared" si="1"/>
         <v>2476.11395579187</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="36">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
         <v>0.286454483258245</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
         <v>709.293943694889</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" spans="1:10">
-      <c r="A9" s="25" t="s">
+    <row r="9" s="20" customFormat="1" spans="1:10">
+      <c r="A9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="29">
         <v>8</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="35">
         <v>6</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="31">
         <f t="shared" si="1"/>
         <v>3218.94814252943</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="36">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
         <v>0.291324209473635</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="33">
         <f t="shared" si="0"/>
         <v>937.757522959013</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="25" t="s">
+    <row r="10" s="20" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="29">
         <v>13</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="35">
         <v>7</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="31">
         <f t="shared" si="1"/>
         <v>4184.63258528827</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="36">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.296276721034687</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="33">
         <f t="shared" si="0"/>
         <v>1239.80922110411</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="43">
         <f>G18/E18</f>
         <v>0.297312469894043</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.303068620770667</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" spans="1:7">
-      <c r="A11" s="25" t="s">
+    <row r="11" s="20" customFormat="1" spans="1:7">
+      <c r="A11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="34">
         <f>B8*1.15/100</f>
         <v>2.6251004</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="35">
         <v>8</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="30">
+      <c r="E11" s="31"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" spans="4:7">
-      <c r="D12" s="32">
+    <row r="12" s="20" customFormat="1" spans="4:7">
+      <c r="D12" s="35">
         <v>9</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="30">
+      <c r="E12" s="31"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" spans="4:7">
-      <c r="D13" s="32">
+    <row r="13" s="20" customFormat="1" spans="4:7">
+      <c r="D13" s="35">
         <v>10</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="30">
+      <c r="E13" s="31"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" spans="4:7">
-      <c r="D14" s="32">
+    <row r="14" s="20" customFormat="1" spans="4:7">
+      <c r="D14" s="35">
         <v>11</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="30">
+      <c r="E14" s="31"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" spans="4:7">
-      <c r="D15" s="32">
+    <row r="15" s="20" customFormat="1" spans="4:7">
+      <c r="D15" s="35">
         <v>12</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="30">
+      <c r="E15" s="31"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" spans="4:7">
-      <c r="D16" s="32">
+    <row r="16" s="20" customFormat="1" spans="4:7">
+      <c r="D16" s="35">
         <v>13</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="30">
+      <c r="E16" s="31"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="34" t="s">
+    <row r="17" s="20" customFormat="1" ht="18.15" spans="4:7">
+      <c r="D17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="38">
         <f>SUM(E3:E16)*3</f>
         <v>48331.5293436506</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="39">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
         <v>0.301313425292276</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="40">
         <f t="shared" si="0"/>
         <v>14562.9386561495</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" spans="4:8">
-      <c r="D18" s="38"/>
-      <c r="E18" s="38">
+    <row r="18" s="20" customFormat="1" spans="4:8">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41">
         <f>SUM(E3:E17)</f>
         <v>64442.0391248675</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41">
         <f>SUM(G3:G17)</f>
         <v>19159.4218172229</v>
       </c>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" s="17" customFormat="1" spans="4:6">
-      <c r="D19" s="25" t="s">
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" s="20" customFormat="1" spans="4:6">
+      <c r="D19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.303068620770667</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1"/>
-    <row r="21" s="17" customFormat="1" spans="4:6">
-      <c r="D21" s="25" t="s">
+    <row r="20" s="20" customFormat="1"/>
+    <row r="21" s="20" customFormat="1" spans="4:6">
+      <c r="D21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34">
         <f>G18/E18</f>
         <v>0.297312469894043</v>
       </c>
     </row>
-    <row r="22" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="18"/>
-      <c r="XEW22" s="18"/>
-      <c r="XEX22" s="18"/>
-      <c r="XEY22" s="18"/>
-      <c r="XEZ22" s="18"/>
-      <c r="XFA22" s="18"/>
-      <c r="XFB22" s="18"/>
-      <c r="XFC22" s="18"/>
-      <c r="XFD22" s="18"/>
-    </row>
-    <row r="23" s="17" customFormat="1" spans="4:16384">
-      <c r="D23" s="25" t="s">
+    <row r="22" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="21"/>
+      <c r="XEW22" s="21"/>
+      <c r="XEX22" s="21"/>
+      <c r="XEY22" s="21"/>
+      <c r="XEZ22" s="21"/>
+      <c r="XFA22" s="21"/>
+      <c r="XFB22" s="21"/>
+      <c r="XFC22" s="21"/>
+      <c r="XFD22" s="21"/>
+    </row>
+    <row r="23" s="20" customFormat="1" spans="4:16384">
+      <c r="D23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34">
         <f>IF($B$1="BUY",(($F$17/$F$19)-1)*100,(($F$19/$F$17)-1)*100)</f>
         <v>0.582514860294725</v>
       </c>
-      <c r="XEV23" s="18"/>
-      <c r="XEW23" s="18"/>
-      <c r="XEX23" s="18"/>
-      <c r="XEY23" s="18"/>
-      <c r="XEZ23" s="18"/>
-      <c r="XFA23" s="18"/>
-      <c r="XFB23" s="18"/>
-      <c r="XFC23" s="18"/>
-      <c r="XFD23" s="18"/>
-    </row>
-    <row r="24" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="18"/>
-      <c r="XEW24" s="18"/>
-      <c r="XEX24" s="18"/>
-      <c r="XEY24" s="18"/>
-      <c r="XEZ24" s="18"/>
-      <c r="XFA24" s="18"/>
-      <c r="XFB24" s="18"/>
-      <c r="XFC24" s="18"/>
-      <c r="XFD24" s="18"/>
-    </row>
-    <row r="25" s="17" customFormat="1" spans="4:16384">
-      <c r="D25" s="25" t="s">
+      <c r="XEV23" s="21"/>
+      <c r="XEW23" s="21"/>
+      <c r="XEX23" s="21"/>
+      <c r="XEY23" s="21"/>
+      <c r="XEZ23" s="21"/>
+      <c r="XFA23" s="21"/>
+      <c r="XFB23" s="21"/>
+      <c r="XFC23" s="21"/>
+      <c r="XFD23" s="21"/>
+    </row>
+    <row r="24" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="21"/>
+      <c r="XEW24" s="21"/>
+      <c r="XEX24" s="21"/>
+      <c r="XEY24" s="21"/>
+      <c r="XEZ24" s="21"/>
+      <c r="XFA24" s="21"/>
+      <c r="XFB24" s="21"/>
+      <c r="XFC24" s="21"/>
+      <c r="XFD24" s="21"/>
+    </row>
+    <row r="25" s="20" customFormat="1" spans="4:16384">
+      <c r="D25" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34">
         <f>IF($B$1="BUY",(($F$21/$F$19)-1)*100,(($F$19/$F$21)-1)*100)</f>
         <v>1.9360610332539</v>
       </c>
-      <c r="XEV25" s="18"/>
-      <c r="XEW25" s="18"/>
-      <c r="XEX25" s="18"/>
-      <c r="XEY25" s="18"/>
-      <c r="XEZ25" s="18"/>
-      <c r="XFA25" s="18"/>
-      <c r="XFB25" s="18"/>
-      <c r="XFC25" s="18"/>
-      <c r="XFD25" s="18"/>
-    </row>
-    <row r="26" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV26" s="18"/>
-      <c r="XEW26" s="18"/>
-      <c r="XEX26" s="18"/>
-      <c r="XEY26" s="18"/>
-      <c r="XEZ26" s="18"/>
-      <c r="XFA26" s="18"/>
-      <c r="XFB26" s="18"/>
-      <c r="XFC26" s="18"/>
-      <c r="XFD26" s="18"/>
-    </row>
-    <row r="27" s="17" customFormat="1" spans="4:16384">
-      <c r="D27" s="25" t="s">
+      <c r="XEV25" s="21"/>
+      <c r="XEW25" s="21"/>
+      <c r="XEX25" s="21"/>
+      <c r="XEY25" s="21"/>
+      <c r="XEZ25" s="21"/>
+      <c r="XFA25" s="21"/>
+      <c r="XFB25" s="21"/>
+      <c r="XFC25" s="21"/>
+      <c r="XFD25" s="21"/>
+    </row>
+    <row r="26" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV26" s="21"/>
+      <c r="XEW26" s="21"/>
+      <c r="XEX26" s="21"/>
+      <c r="XEY26" s="21"/>
+      <c r="XEZ26" s="21"/>
+      <c r="XFA26" s="21"/>
+      <c r="XFB26" s="21"/>
+      <c r="XFC26" s="21"/>
+      <c r="XFD26" s="21"/>
+    </row>
+    <row r="27" s="20" customFormat="1" spans="4:16384">
+      <c r="D27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
         <v>15.1039197761742</v>
       </c>
-      <c r="XEV27" s="18"/>
-      <c r="XEW27" s="18"/>
-      <c r="XEX27" s="18"/>
-      <c r="XEY27" s="18"/>
-      <c r="XEZ27" s="18"/>
-      <c r="XFA27" s="18"/>
-      <c r="XFB27" s="18"/>
-      <c r="XFC27" s="18"/>
-      <c r="XFD27" s="18"/>
+      <c r="XEV27" s="21"/>
+      <c r="XEW27" s="21"/>
+      <c r="XEX27" s="21"/>
+      <c r="XEY27" s="21"/>
+      <c r="XEZ27" s="21"/>
+      <c r="XFA27" s="21"/>
+      <c r="XFB27" s="21"/>
+      <c r="XFC27" s="21"/>
+      <c r="XFD27" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -5312,442 +5345,442 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="17" customWidth="1"/>
-    <col min="3" max="3" width="4.55555555555556" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="5" max="5" width="21.5555555555556" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="17" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="17" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="17" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="17" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="17" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="17" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="17"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="18"/>
+    <col min="1" max="1" width="22" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="20" customWidth="1"/>
+    <col min="3" max="3" width="4.55555555555556" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="5" max="5" width="21.5555555555556" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="20" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="20" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="20" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="20" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="20" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="20" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="20" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="20"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="20" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="21" t="s">
+    <row r="2" s="20" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" spans="1:10">
-      <c r="A3" s="25" t="s">
+    <row r="3" s="20" customFormat="1" spans="1:10">
+      <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="29">
         <v>2853.37</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="31">
         <f>G3/F3</f>
         <v>1083.69540448158</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="32">
         <v>0.2633</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="33">
         <f>B8</f>
         <v>285.337</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="42">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
         <v>-1.58999939700128</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" spans="1:10">
-      <c r="A4" s="25" t="s">
+    <row r="4" s="20" customFormat="1" spans="1:10">
+      <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="34">
         <f>-B3*$B$10/100</f>
         <v>-142.6685</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="31">
         <f>E3</f>
         <v>1083.69540448158</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="36">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.2677761</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="33">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
         <v>290.187729</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="42">
         <f>E18</f>
         <v>31154.0754880365</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" spans="1:10">
-      <c r="A5" s="25" t="s">
+    <row r="5" s="20" customFormat="1" spans="1:10">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="29">
         <v>1.7</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="35">
         <v>2</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="31">
         <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
         <v>1408.80402582605</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="36">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.2723282937</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="33">
         <f t="shared" si="0"/>
         <v>383.6571965109</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="42">
         <f>J4*J10</f>
         <v>8972.86503812962</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" spans="1:10">
-      <c r="A6" s="25" t="s">
+    <row r="6" s="20" customFormat="1" spans="1:10">
+      <c r="A6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="34">
         <v>30</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="35">
         <v>3</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="31">
         <f t="shared" si="1"/>
         <v>1831.44523357387</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="36">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
         <v>0.2769578746929</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="33">
         <f t="shared" si="0"/>
         <v>507.233179507061</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="42">
         <f>J3/100*J4*J10</f>
         <v>-142.6685</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" spans="1:10">
-      <c r="A7" s="25" t="s">
+    <row r="7" s="20" customFormat="1" spans="1:10">
+      <c r="A7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="34">
         <v>10</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="35">
         <v>4</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="31">
         <f t="shared" si="1"/>
         <v>2380.87880364603</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="36">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
         <v>0.281666158562679</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="33">
         <f t="shared" si="0"/>
         <v>670.612986626285</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="34">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
         <v>9.38692363446001</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" spans="1:7">
-      <c r="A8" s="25" t="s">
+    <row r="8" s="20" customFormat="1" spans="1:7">
+      <c r="A8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="34">
         <f>B3*$B$9/100</f>
         <v>285.337</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="35">
         <v>5</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="30">
+      <c r="E8" s="31"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" spans="1:10">
-      <c r="A9" s="25" t="s">
+    <row r="9" s="20" customFormat="1" spans="1:10">
+      <c r="A9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="29">
         <v>10</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="35">
         <v>6</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="30">
+      <c r="E9" s="31"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="25" t="s">
+    <row r="10" s="20" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="29">
         <v>5</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="35">
         <v>7</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="30">
+      <c r="E10" s="31"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="43">
         <f>G18/E18</f>
         <v>0.283436320924385</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="44">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.288015769929533</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" spans="1:7">
-      <c r="A11" s="25" t="s">
+    <row r="11" s="20" customFormat="1" spans="1:7">
+      <c r="A11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="34">
         <f>B8*1.15/100</f>
         <v>3.2813755</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="35">
         <v>8</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="30">
+      <c r="E11" s="31"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" spans="4:7">
-      <c r="D12" s="32">
+    <row r="12" s="20" customFormat="1" spans="4:7">
+      <c r="D12" s="35">
         <v>9</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="30">
+      <c r="E12" s="31"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" spans="4:7">
-      <c r="D13" s="32">
+    <row r="13" s="20" customFormat="1" spans="4:7">
+      <c r="D13" s="35">
         <v>10</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="30">
+      <c r="E13" s="31"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" spans="4:7">
-      <c r="D14" s="32">
+    <row r="14" s="20" customFormat="1" spans="4:7">
+      <c r="D14" s="35">
         <v>11</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="30">
+      <c r="E14" s="31"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" spans="4:7">
-      <c r="D15" s="32">
+    <row r="15" s="20" customFormat="1" spans="4:7">
+      <c r="D15" s="35">
         <v>12</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="30">
+      <c r="E15" s="31"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" spans="4:7">
-      <c r="D16" s="32">
+    <row r="16" s="20" customFormat="1" spans="4:7">
+      <c r="D16" s="35">
         <v>13</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="30">
+      <c r="E16" s="31"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="34" t="s">
+    <row r="17" s="20" customFormat="1" ht="18.15" spans="4:7">
+      <c r="D17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="38">
         <f>SUM(E3:E16)*3</f>
         <v>23365.5566160273</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="39">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5)/100),MAX(F3:F16)*(1+($B$5)/100))</f>
         <v>0.286454483258245</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="40">
         <f t="shared" si="0"/>
         <v>6693.16844648537</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" spans="4:8">
-      <c r="D18" s="38"/>
-      <c r="E18" s="38">
+    <row r="18" s="20" customFormat="1" spans="4:8">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41">
         <f>SUM(E3:E17)</f>
         <v>31154.0754880365</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41">
         <f>SUM(G3:G17)</f>
         <v>8830.19653812962</v>
       </c>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" s="17" customFormat="1" spans="4:6">
-      <c r="D19" s="25" t="s">
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" s="20" customFormat="1" spans="4:6">
+      <c r="D19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.288015769929533</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1"/>
-    <row r="21" s="17" customFormat="1" spans="4:6">
-      <c r="D21" s="25" t="s">
+    <row r="20" s="20" customFormat="1"/>
+    <row r="21" s="20" customFormat="1" spans="4:6">
+      <c r="D21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34">
         <f>G18/E18</f>
         <v>0.283436320924385</v>
       </c>
     </row>
-    <row r="22" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="18"/>
-      <c r="XEW22" s="18"/>
-      <c r="XEX22" s="18"/>
-      <c r="XEY22" s="18"/>
-      <c r="XEZ22" s="18"/>
-      <c r="XFA22" s="18"/>
-      <c r="XFB22" s="18"/>
-      <c r="XFC22" s="18"/>
-      <c r="XFD22" s="18"/>
-    </row>
-    <row r="23" s="17" customFormat="1" spans="4:16384">
-      <c r="D23" s="25" t="s">
+    <row r="22" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="21"/>
+      <c r="XEW22" s="21"/>
+      <c r="XEX22" s="21"/>
+      <c r="XEY22" s="21"/>
+      <c r="XEZ22" s="21"/>
+      <c r="XFA22" s="21"/>
+      <c r="XFB22" s="21"/>
+      <c r="XFC22" s="21"/>
+      <c r="XFD22" s="21"/>
+    </row>
+    <row r="23" s="20" customFormat="1" spans="4:16384">
+      <c r="D23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34">
         <f>IF($B$1="BUY",(($F$17/$F$19)-1)*100,(($F$19/$F$17)-1)*100)</f>
         <v>0.545038308889367</v>
       </c>
-      <c r="XEV23" s="18"/>
-      <c r="XEW23" s="18"/>
-      <c r="XEX23" s="18"/>
-      <c r="XEY23" s="18"/>
-      <c r="XEZ23" s="18"/>
-      <c r="XFA23" s="18"/>
-      <c r="XFB23" s="18"/>
-      <c r="XFC23" s="18"/>
-      <c r="XFD23" s="18"/>
-    </row>
-    <row r="24" s="17" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="18"/>
-      <c r="XEW24" s="18"/>
-      <c r="XEX24" s="18"/>
-      <c r="XEY24" s="18"/>
-      <c r="XEZ24" s="18"/>
-      <c r="XFA24" s="18"/>
-      <c r="XFB24" s="18"/>
-      <c r="XFC24" s="18"/>
-      <c r="XFD24" s="18"/>
+      <c r="XEV23" s="21"/>
+      <c r="XEW23" s="21"/>
+      <c r="XEX23" s="21"/>
+      <c r="XEY23" s="21"/>
+      <c r="XEZ23" s="21"/>
+      <c r="XFA23" s="21"/>
+      <c r="XFB23" s="21"/>
+      <c r="XFC23" s="21"/>
+      <c r="XFD23" s="21"/>
+    </row>
+    <row r="24" s="20" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="21"/>
+      <c r="XEW24" s="21"/>
+      <c r="XEX24" s="21"/>
+      <c r="XEY24" s="21"/>
+      <c r="XEZ24" s="21"/>
+      <c r="XFA24" s="21"/>
+      <c r="XFB24" s="21"/>
+      <c r="XFC24" s="21"/>
+      <c r="XFD24" s="21"/>
     </row>
     <row r="25" spans="4:6">
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34">
         <f>IF($B$1="BUY",(($F$21/$F$19)-1)*100,(($F$19/$F$21)-1)*100)</f>
         <v>1.61568883981171</v>
       </c>
     </row>
     <row r="27" spans="4:6">
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34">
         <f>IF($B$1="BUY",((($J$10/$F$3)-1)*-1),($J$10/$F$3)-1)*100</f>
         <v>9.38692363446001</v>
       </c>
@@ -5831,209 +5864,209 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5555555555556" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="4"/>
-    <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.5555555555556" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.1111111111111" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.2222222222222" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.8611111111111" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.2222222222222" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.7777777777778" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="4"/>
+    <col min="1" max="1" width="13" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.5555555555556" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="7"/>
+    <col min="4" max="4" width="9" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.2222222222222" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8611111111111" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.2222222222222" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14.7777777777778" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>2644.26</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <v>3412</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="12">
         <v>0.15119</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="14">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
         <v>22567.6301342681</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="15">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
         <v>-11.2035924626909</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="15">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
         <v>0.15119</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="15">
         <f>IF(A2="BUY",((B5/SUM(E3:E4))+1)*I3,((B5/-SUM(E3:E4))+1)*I3)</f>
         <v>0.135957837918523</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="17">
         <f>H3/100*SUM(G3:G4)*J3</f>
         <v>-343.7538</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>13</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="12">
         <v>0.14198</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <f>-B3*B4/100</f>
         <v>-343.7538</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="5"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
         <v>1.15</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="9">
+      <c r="I6" s="14"/>
+      <c r="J6" s="12">
         <v>0.15199</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="19">
         <f>H6/100*SUM(G3:G4)*J6</f>
         <v>39.4456221972353</v>
       </c>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="14" spans="5:6">
-      <c r="E14" s="4">
+      <c r="E14" s="7">
         <v>87.36</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <f>E14*0.7/100</f>
         <v>0.61152</v>
       </c>
@@ -6083,7 +6116,7 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A21" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -6100,25 +6133,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6813,21 +6846,21 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7043,4 +7076,290 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="11.7777777777778" style="1"/>
+    <col min="2" max="3" width="12.8888888888889" style="1"/>
+    <col min="4" max="4" width="8.88888888888889" style="1"/>
+    <col min="5" max="6" width="12.8888888888889" style="1"/>
+    <col min="7" max="10" width="8.88888888888889" style="1"/>
+    <col min="11" max="11" width="11.7777777777778" style="1"/>
+    <col min="12" max="12" width="16.4444444444444" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="3:6">
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:6">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C10" si="0">B3*(1+1.7/100)</f>
+        <v>1.017</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F10" si="1">E3*(1-1.7/100)</f>
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:6">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B10" si="2">C3</f>
+        <v>1.017</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.034289</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E10" si="3">F3</f>
+        <v>0.983</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.966289</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:6">
+      <c r="B5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.034289</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.051871913</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.966289</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.949862087</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:6">
+      <c r="B6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.051871913</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.069753735521</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.949862087</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.933714431521</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:6">
+      <c r="B7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.069753735521</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.08793954902486</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.933714431521</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.917841286185143</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:6">
+      <c r="B8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.08793954902486</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.10643452135828</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.917841286185143</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.902237984319995</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:6">
+      <c r="B9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.10643452135828</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.12524390822137</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.902237984319995</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.886899938586556</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:7">
+      <c r="B10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.12524390822137</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.14437305466113</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.886899938586556</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.871822639630584</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:2">
+      <c r="A14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:2">
+      <c r="A15" s="2">
+        <f>B15*A14/B14</f>
+        <v>0.13</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B14*1.3</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:2">
+      <c r="A16" s="2">
+        <f t="shared" ref="A16:A21" si="4">B16*A15/B15</f>
+        <v>0.169</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:B21" si="5">B15*1.3</f>
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:2">
+      <c r="A17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.2197</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="5"/>
+        <v>131.82</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:2">
+      <c r="A18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.28561</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="5"/>
+        <v>171.366</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:2">
+      <c r="A19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.371293</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="5"/>
+        <v>222.7758</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:2">
+      <c r="A20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.4826809</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="5"/>
+        <v>289.60854</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:2">
+      <c r="A21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.62748517</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="5"/>
+        <v>376.491102</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="A22" s="3">
+        <f>SUM(A14:A21)*3</f>
+        <v>7.15730721</v>
+      </c>
+      <c r="B22" s="4">
+        <f>SUM(B14:B21)*3</f>
+        <v>4294.384326</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>